--- a/Estimering/loebpriser.xlsx
+++ b/Estimering/loebpriser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskaslund/Documents/GitHub/SpecialeJR /Estimering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E038051-742A-9D42-B997-EC17B3F7C76D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5BA477-D7AE-3C4C-BDE7-25D471ACA86B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="91">
   <si>
     <t>1994</t>
   </si>
@@ -268,6 +268,42 @@
   <si>
     <t>FORBRUG I ALT, 1.000.000 kr. og derover</t>
   </si>
+  <si>
+    <t>Varer</t>
+  </si>
+  <si>
+    <t>Fødevarer</t>
+  </si>
+  <si>
+    <t>Bolig</t>
+  </si>
+  <si>
+    <t>Energi</t>
+  </si>
+  <si>
+    <t>Tjenester</t>
+  </si>
+  <si>
+    <t>Biler</t>
+  </si>
+  <si>
+    <t>Turisme</t>
+  </si>
+  <si>
+    <t>Andre varer</t>
+  </si>
+  <si>
+    <t>Off transport</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>MAKRO_gruppe</t>
+  </si>
+  <si>
+    <t>Egen_gruppe</t>
+  </si>
 </sst>
 </file>
 
@@ -308,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -316,6 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,10 +655,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB283"/>
+  <dimension ref="A1:AC283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB4"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A11" sqref="A11"/>
+      <selection pane="topRight" activeCell="AB1" sqref="AB1:AC283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -630,7 +669,7 @@
     <col min="2" max="27" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -712,9 +751,14 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -796,8 +840,14 @@
       <c r="AA2" s="2">
         <v>323254</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -879,8 +929,14 @@
       <c r="AA3" s="2">
         <v>34380</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -962,8 +1018,14 @@
       <c r="AA4" s="2">
         <v>3586</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1045,8 +1107,14 @@
       <c r="AA5" s="2">
         <v>4892</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1128,8 +1196,14 @@
       <c r="AA6" s="2">
         <v>2041</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1211,8 +1285,14 @@
       <c r="AA7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1294,8 +1374,14 @@
       <c r="AA8" s="2">
         <v>9723</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1377,8 +1463,14 @@
       <c r="AA9" s="2">
         <v>2096</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1460,8 +1552,14 @@
       <c r="AA10" s="2">
         <v>29838</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1543,8 +1641,14 @@
       <c r="AA11" s="2">
         <v>41710</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1626,8 +1730,14 @@
       <c r="AA12" s="2">
         <v>2972</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1709,8 +1819,14 @@
       <c r="AA13" s="2">
         <v>9555</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1792,8 +1908,14 @@
       <c r="AA14" s="2">
         <v>23580</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1875,8 +1997,14 @@
       <c r="AA15" s="2">
         <v>6195</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1958,8 +2086,14 @@
       <c r="AA16" s="2">
         <v>1116</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -2041,8 +2175,14 @@
       <c r="AA17" s="2">
         <v>2192</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -2124,8 +2264,14 @@
       <c r="AA18" s="2">
         <v>1655</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -2207,8 +2353,14 @@
       <c r="AA19" s="2">
         <v>1370</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2442,14 @@
       <c r="AA20" s="2">
         <v>3197</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -2373,8 +2531,14 @@
       <c r="AA21" s="2">
         <v>3563</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -2456,8 +2620,14 @@
       <c r="AA22" s="2">
         <v>4108</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2709,14 @@
       <c r="AA23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -2622,8 +2798,14 @@
       <c r="AA24" s="2">
         <v>17754</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -2705,8 +2887,14 @@
       <c r="AA25" s="2">
         <v>21346</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -2788,8 +2976,14 @@
       <c r="AA26" s="2">
         <v>5918</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -2871,8 +3065,14 @@
       <c r="AA27" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -2954,8 +3154,14 @@
       <c r="AA28" s="2">
         <v>1363</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -3037,8 +3243,14 @@
       <c r="AA29" s="2">
         <v>6683</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -3120,8 +3332,14 @@
       <c r="AA30" s="2">
         <v>3230</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -3203,8 +3421,14 @@
       <c r="AA31" s="2">
         <v>2354</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -3286,8 +3510,14 @@
       <c r="AA32" s="2">
         <v>7272</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -3369,8 +3599,14 @@
       <c r="AA33" s="2">
         <v>10987</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -3452,8 +3688,14 @@
       <c r="AA34" s="2">
         <v>2464</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC34" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -3535,8 +3777,14 @@
       <c r="AA35" s="2">
         <v>6145</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -3618,8 +3866,14 @@
       <c r="AA36" s="2">
         <v>777</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC36" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -3701,8 +3955,14 @@
       <c r="AA37" s="2">
         <v>592</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC37" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
@@ -3784,8 +4044,14 @@
       <c r="AA38" s="2">
         <v>159</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>62</v>
       </c>
@@ -3867,8 +4133,14 @@
       <c r="AA39" s="2">
         <v>193</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC39" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -3950,8 +4222,14 @@
       <c r="AA40" s="2">
         <v>15314</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>64</v>
       </c>
@@ -4033,8 +4311,14 @@
       <c r="AA41" s="2">
         <v>4435</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -4116,8 +4400,14 @@
       <c r="AA42" s="2">
         <v>6155</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
@@ -4199,8 +4489,14 @@
       <c r="AA43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>67</v>
       </c>
@@ -4282,8 +4578,14 @@
       <c r="AA44" s="2">
         <v>1856</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
@@ -4365,8 +4667,14 @@
       <c r="AA45" s="2">
         <v>3927</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>69</v>
       </c>
@@ -4448,8 +4756,14 @@
       <c r="AA46" s="2">
         <v>15210</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
@@ -4531,8 +4845,14 @@
       <c r="AA47" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -4614,8 +4934,14 @@
       <c r="AA48" s="2">
         <v>676</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>74</v>
       </c>
@@ -4697,8 +5023,14 @@
       <c r="AA49" s="2">
         <v>166455</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB49" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>26</v>
       </c>
@@ -4780,8 +5112,14 @@
       <c r="AA50" s="2">
         <v>18184</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC50" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
@@ -4863,8 +5201,14 @@
       <c r="AA51" s="2">
         <v>2094</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC51" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -4946,8 +5290,14 @@
       <c r="AA52" s="2">
         <v>2488</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
@@ -5029,8 +5379,14 @@
       <c r="AA53" s="2">
         <v>1940</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC53" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
@@ -5112,8 +5468,14 @@
       <c r="AA54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>31</v>
       </c>
@@ -5195,8 +5557,14 @@
       <c r="AA55" s="2">
         <v>4840</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC55" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>32</v>
       </c>
@@ -5278,8 +5646,14 @@
       <c r="AA56" s="2">
         <v>1046</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC56" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
@@ -5361,8 +5735,14 @@
       <c r="AA57" s="2">
         <v>41477</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
@@ -5444,8 +5824,14 @@
       <c r="AA58" s="2">
         <v>5302</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>35</v>
       </c>
@@ -5527,8 +5913,14 @@
       <c r="AA59" s="2">
         <v>668</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>36</v>
       </c>
@@ -5610,8 +6002,14 @@
       <c r="AA60" s="2">
         <v>4986</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>37</v>
       </c>
@@ -5693,8 +6091,14 @@
       <c r="AA61" s="2">
         <v>17714</v>
       </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC61" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
@@ -5776,8 +6180,14 @@
       <c r="AA62" s="2">
         <v>2296</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>39</v>
       </c>
@@ -5859,8 +6269,14 @@
       <c r="AA63" s="2">
         <v>806</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC63" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>40</v>
       </c>
@@ -5942,8 +6358,14 @@
       <c r="AA64" s="2">
         <v>1179</v>
       </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC64" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>41</v>
       </c>
@@ -6025,8 +6447,14 @@
       <c r="AA65" s="2">
         <v>745</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC65" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>42</v>
       </c>
@@ -6108,8 +6536,14 @@
       <c r="AA66" s="2">
         <v>590</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>43</v>
       </c>
@@ -6191,8 +6625,14 @@
       <c r="AA67" s="2">
         <v>1265</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC67" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>44</v>
       </c>
@@ -6274,8 +6714,14 @@
       <c r="AA68" s="2">
         <v>3008</v>
       </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC68" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>45</v>
       </c>
@@ -6357,8 +6803,14 @@
       <c r="AA69" s="2">
         <v>2054</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC69" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>46</v>
       </c>
@@ -6440,8 +6892,14 @@
       <c r="AA70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC70" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>47</v>
       </c>
@@ -6523,8 +6981,14 @@
       <c r="AA71" s="2">
         <v>3964</v>
       </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC71" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>48</v>
       </c>
@@ -6606,8 +7070,14 @@
       <c r="AA72" s="2">
         <v>6245</v>
       </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>49</v>
       </c>
@@ -6689,8 +7159,14 @@
       <c r="AA73" s="2">
         <v>3661</v>
       </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC73" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>50</v>
       </c>
@@ -6772,8 +7248,14 @@
       <c r="AA74" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC74" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>51</v>
       </c>
@@ -6855,8 +7337,14 @@
       <c r="AA75" s="2">
         <v>775</v>
       </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC75" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
@@ -6938,8 +7426,14 @@
       <c r="AA76" s="2">
         <v>3996</v>
       </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>53</v>
       </c>
@@ -7021,8 +7515,14 @@
       <c r="AA77" s="2">
         <v>1805</v>
       </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC77" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>54</v>
       </c>
@@ -7104,8 +7604,14 @@
       <c r="AA78" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB78" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC78" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>55</v>
       </c>
@@ -7187,8 +7693,14 @@
       <c r="AA79" s="2">
         <v>3386</v>
       </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB79" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC79" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>56</v>
       </c>
@@ -7270,8 +7782,14 @@
       <c r="AA80" s="2">
         <v>6169</v>
       </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC80" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>57</v>
       </c>
@@ -7353,8 +7871,14 @@
       <c r="AA81" s="2">
         <v>1549</v>
       </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC81" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>58</v>
       </c>
@@ -7436,8 +7960,14 @@
       <c r="AA82" s="2">
         <v>1091</v>
       </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC82" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>59</v>
       </c>
@@ -7519,8 +8049,14 @@
       <c r="AA83" s="2">
         <v>146</v>
       </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>60</v>
       </c>
@@ -7602,8 +8138,14 @@
       <c r="AA84" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC84" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>61</v>
       </c>
@@ -7685,8 +8227,14 @@
       <c r="AA85" s="2">
         <v>673</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC85" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>62</v>
       </c>
@@ -7768,8 +8316,14 @@
       <c r="AA86" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC86" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>63</v>
       </c>
@@ -7851,8 +8405,14 @@
       <c r="AA87" s="2">
         <v>7312</v>
       </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC87" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>64</v>
       </c>
@@ -7934,8 +8494,14 @@
       <c r="AA88" s="2">
         <v>1546</v>
       </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC88" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>65</v>
       </c>
@@ -8017,8 +8583,14 @@
       <c r="AA89" s="2">
         <v>3661</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>66</v>
       </c>
@@ -8100,8 +8672,14 @@
       <c r="AA90" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC90" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>67</v>
       </c>
@@ -8183,8 +8761,14 @@
       <c r="AA91" s="2">
         <v>1300</v>
       </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>68</v>
       </c>
@@ -8266,8 +8850,14 @@
       <c r="AA92" s="2">
         <v>589</v>
       </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC92" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>69</v>
       </c>
@@ -8349,8 +8939,14 @@
       <c r="AA93" s="2">
         <v>5102</v>
       </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC93" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>70</v>
       </c>
@@ -8432,8 +9028,14 @@
       <c r="AA94" s="2">
         <v>170</v>
       </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>71</v>
       </c>
@@ -8515,8 +9117,14 @@
       <c r="AA95" s="2">
         <v>343</v>
       </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC95" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>75</v>
       </c>
@@ -8598,8 +9206,14 @@
       <c r="AA96" s="2">
         <v>223581</v>
       </c>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB96" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>26</v>
       </c>
@@ -8681,8 +9295,14 @@
       <c r="AA97" s="2">
         <v>25655</v>
       </c>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC97" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>27</v>
       </c>
@@ -8764,8 +9384,14 @@
       <c r="AA98" s="2">
         <v>2984</v>
       </c>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC98" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>28</v>
       </c>
@@ -8847,8 +9473,14 @@
       <c r="AA99" s="2">
         <v>3172</v>
       </c>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC99" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>29</v>
       </c>
@@ -8930,8 +9562,14 @@
       <c r="AA100" s="2">
         <v>2098</v>
       </c>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>30</v>
       </c>
@@ -9013,8 +9651,14 @@
       <c r="AA101" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>31</v>
       </c>
@@ -9096,8 +9740,14 @@
       <c r="AA102" s="2">
         <v>7180</v>
       </c>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB102" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC102" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>32</v>
       </c>
@@ -9179,8 +9829,14 @@
       <c r="AA103" s="2">
         <v>1586</v>
       </c>
-    </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB103" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC103" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>33</v>
       </c>
@@ -9262,8 +9918,14 @@
       <c r="AA104" s="2">
         <v>38258</v>
       </c>
-    </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB104" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC104" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>34</v>
       </c>
@@ -9345,8 +10007,14 @@
       <c r="AA105" s="2">
         <v>18934</v>
       </c>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB105" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC105" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>35</v>
       </c>
@@ -9428,8 +10096,14 @@
       <c r="AA106" s="2">
         <v>2220</v>
       </c>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB106" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC106" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>36</v>
       </c>
@@ -9511,8 +10185,14 @@
       <c r="AA107" s="2">
         <v>7429</v>
       </c>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB107" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC107" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>37</v>
       </c>
@@ -9594,8 +10274,14 @@
       <c r="AA108" s="2">
         <v>20589</v>
       </c>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB108" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC108" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>38</v>
       </c>
@@ -9677,8 +10363,14 @@
       <c r="AA109" s="2">
         <v>2702</v>
       </c>
-    </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB109" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC109" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>39</v>
       </c>
@@ -9760,8 +10452,14 @@
       <c r="AA110" s="2">
         <v>513</v>
       </c>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB110" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC110" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>40</v>
       </c>
@@ -9843,8 +10541,14 @@
       <c r="AA111" s="2">
         <v>1111</v>
       </c>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB111" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC111" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>41</v>
       </c>
@@ -9926,8 +10630,14 @@
       <c r="AA112" s="2">
         <v>1345</v>
       </c>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB112" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC112" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>42</v>
       </c>
@@ -10009,8 +10719,14 @@
       <c r="AA113" s="2">
         <v>548</v>
       </c>
-    </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB113" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC113" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>43</v>
       </c>
@@ -10092,8 +10808,14 @@
       <c r="AA114" s="2">
         <v>1953</v>
       </c>
-    </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB114" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC114" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>44</v>
       </c>
@@ -10175,8 +10897,14 @@
       <c r="AA115" s="2">
         <v>2190</v>
       </c>
-    </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB115" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC115" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>45</v>
       </c>
@@ -10258,8 +10986,14 @@
       <c r="AA116" s="2">
         <v>3441</v>
       </c>
-    </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB116" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC116" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>46</v>
       </c>
@@ -10341,8 +11075,14 @@
       <c r="AA117" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB117" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC117" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>47</v>
       </c>
@@ -10424,8 +11164,14 @@
       <c r="AA118" s="2">
         <v>7201</v>
       </c>
-    </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB118" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC118" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>48</v>
       </c>
@@ -10507,8 +11253,14 @@
       <c r="AA119" s="2">
         <v>11097</v>
       </c>
-    </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB119" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC119" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>49</v>
       </c>
@@ -10590,8 +11342,14 @@
       <c r="AA120" s="2">
         <v>3462</v>
       </c>
-    </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB120" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC120" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>50</v>
       </c>
@@ -10673,8 +11431,14 @@
       <c r="AA121" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB121" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC121" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>51</v>
       </c>
@@ -10756,8 +11520,14 @@
       <c r="AA122" s="2">
         <v>911</v>
       </c>
-    </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB122" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC122" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>52</v>
       </c>
@@ -10839,8 +11609,14 @@
       <c r="AA123" s="2">
         <v>5815</v>
       </c>
-    </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB123" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC123" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>53</v>
       </c>
@@ -10922,8 +11698,14 @@
       <c r="AA124" s="2">
         <v>2185</v>
       </c>
-    </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB124" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC124" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>54</v>
       </c>
@@ -11005,8 +11787,14 @@
       <c r="AA125" s="2">
         <v>253</v>
       </c>
-    </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB125" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC125" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>55</v>
       </c>
@@ -11088,8 +11876,14 @@
       <c r="AA126" s="2">
         <v>6235</v>
       </c>
-    </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB126" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC126" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -11171,8 +11965,14 @@
       <c r="AA127" s="2">
         <v>8777</v>
       </c>
-    </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB127" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC127" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>57</v>
       </c>
@@ -11254,8 +12054,14 @@
       <c r="AA128" s="2">
         <v>2259</v>
       </c>
-    </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB128" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC128" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>58</v>
       </c>
@@ -11337,8 +12143,14 @@
       <c r="AA129" s="2">
         <v>4513</v>
       </c>
-    </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB129" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC129" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>59</v>
       </c>
@@ -11420,8 +12232,14 @@
       <c r="AA130" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB130" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC130" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>60</v>
       </c>
@@ -11503,8 +12321,14 @@
       <c r="AA131" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB131" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC131" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>61</v>
       </c>
@@ -11586,8 +12410,14 @@
       <c r="AA132" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB132" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC132" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>62</v>
       </c>
@@ -11669,8 +12499,14 @@
       <c r="AA133" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB133" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC133" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>63</v>
       </c>
@@ -11752,8 +12588,14 @@
       <c r="AA134" s="2">
         <v>8884</v>
       </c>
-    </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB134" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC134" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>64</v>
       </c>
@@ -11835,8 +12677,14 @@
       <c r="AA135" s="2">
         <v>1469</v>
       </c>
-    </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB135" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC135" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>65</v>
       </c>
@@ -11918,8 +12766,14 @@
       <c r="AA136" s="2">
         <v>4642</v>
       </c>
-    </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB136" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC136" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>66</v>
       </c>
@@ -12001,8 +12855,14 @@
       <c r="AA137" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB137" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC137" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>67</v>
       </c>
@@ -12084,8 +12944,14 @@
       <c r="AA138" s="2">
         <v>798</v>
       </c>
-    </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB138" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC138" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>68</v>
       </c>
@@ -12167,8 +13033,14 @@
       <c r="AA139" s="2">
         <v>576</v>
       </c>
-    </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB139" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC139" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>69</v>
       </c>
@@ -12250,8 +13122,14 @@
       <c r="AA140" s="2">
         <v>9561</v>
       </c>
-    </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB140" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC140" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>70</v>
       </c>
@@ -12333,8 +13211,14 @@
       <c r="AA141" s="2">
         <v>313</v>
       </c>
-    </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB141" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC141" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>71</v>
       </c>
@@ -12416,8 +13300,14 @@
       <c r="AA142" s="2">
         <v>419</v>
       </c>
-    </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB142" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC142" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>76</v>
       </c>
@@ -12499,8 +13389,14 @@
       <c r="AA143" s="2">
         <v>303460</v>
       </c>
-    </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB143" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>26</v>
       </c>
@@ -12582,8 +13478,14 @@
       <c r="AA144" s="2">
         <v>31398</v>
       </c>
-    </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB144" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC144" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>27</v>
       </c>
@@ -12665,8 +13567,14 @@
       <c r="AA145" s="2">
         <v>3182</v>
       </c>
-    </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB145" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC145" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>28</v>
       </c>
@@ -12748,8 +13656,14 @@
       <c r="AA146" s="2">
         <v>4462</v>
       </c>
-    </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB146" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC146" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>29</v>
       </c>
@@ -12831,8 +13745,14 @@
       <c r="AA147" s="2">
         <v>2529</v>
       </c>
-    </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB147" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC147" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>30</v>
       </c>
@@ -12914,8 +13834,14 @@
       <c r="AA148" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB148" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC148" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>31</v>
       </c>
@@ -12997,8 +13923,14 @@
       <c r="AA149" s="2">
         <v>7566</v>
       </c>
-    </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB149" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC149" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>32</v>
       </c>
@@ -13080,8 +14012,14 @@
       <c r="AA150" s="2">
         <v>2054</v>
       </c>
-    </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB150" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC150" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>33</v>
       </c>
@@ -13163,8 +14101,14 @@
       <c r="AA151" s="2">
         <v>32204</v>
       </c>
-    </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB151" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC151" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>34</v>
       </c>
@@ -13246,8 +14190,14 @@
       <c r="AA152" s="2">
         <v>35644</v>
       </c>
-    </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB152" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC152" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>35</v>
       </c>
@@ -13329,8 +14279,14 @@
       <c r="AA153" s="2">
         <v>2969</v>
       </c>
-    </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB153" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC153" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>36</v>
       </c>
@@ -13412,8 +14368,14 @@
       <c r="AA154" s="2">
         <v>9432</v>
       </c>
-    </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB154" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC154" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>37</v>
       </c>
@@ -13495,8 +14457,14 @@
       <c r="AA155" s="2">
         <v>22568</v>
       </c>
-    </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB155" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC155" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>38</v>
       </c>
@@ -13578,8 +14546,14 @@
       <c r="AA156" s="2">
         <v>7420</v>
       </c>
-    </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB156" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC156" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>39</v>
       </c>
@@ -13661,8 +14635,14 @@
       <c r="AA157" s="2">
         <v>886</v>
       </c>
-    </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB157" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC157" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>40</v>
       </c>
@@ -13744,8 +14724,14 @@
       <c r="AA158" s="2">
         <v>2071</v>
       </c>
-    </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB158" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC158" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>41</v>
       </c>
@@ -13827,8 +14813,14 @@
       <c r="AA159" s="2">
         <v>1551</v>
       </c>
-    </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB159" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC159" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>42</v>
       </c>
@@ -13910,8 +14902,14 @@
       <c r="AA160" s="2">
         <v>1189</v>
       </c>
-    </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB160" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC160" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>43</v>
       </c>
@@ -13993,8 +14991,14 @@
       <c r="AA161" s="2">
         <v>2475</v>
       </c>
-    </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB161" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC161" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>44</v>
       </c>
@@ -14076,8 +15080,14 @@
       <c r="AA162" s="2">
         <v>3706</v>
       </c>
-    </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB162" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC162" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>45</v>
       </c>
@@ -14159,8 +15169,14 @@
       <c r="AA163" s="2">
         <v>4084</v>
       </c>
-    </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB163" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC163" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>46</v>
       </c>
@@ -14242,8 +15258,14 @@
       <c r="AA164" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB164" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC164" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>47</v>
       </c>
@@ -14325,8 +15347,14 @@
       <c r="AA165" s="2">
         <v>20009</v>
       </c>
-    </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB165" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC165" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>48</v>
       </c>
@@ -14408,8 +15436,14 @@
       <c r="AA166" s="2">
         <v>19810</v>
       </c>
-    </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB166" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC166" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>49</v>
       </c>
@@ -14491,8 +15525,14 @@
       <c r="AA167" s="2">
         <v>4533</v>
       </c>
-    </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB167" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC167" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>50</v>
       </c>
@@ -14574,8 +15614,14 @@
       <c r="AA168" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB168" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC168" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>51</v>
       </c>
@@ -14657,8 +15703,14 @@
       <c r="AA169" s="2">
         <v>1515</v>
       </c>
-    </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB169" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC169" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>52</v>
       </c>
@@ -14740,8 +15792,14 @@
       <c r="AA170" s="2">
         <v>6829</v>
       </c>
-    </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB170" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC170" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>53</v>
       </c>
@@ -14823,8 +15881,14 @@
       <c r="AA171" s="2">
         <v>2906</v>
       </c>
-    </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB171" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC171" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>54</v>
       </c>
@@ -14906,8 +15970,14 @@
       <c r="AA172" s="2">
         <v>662</v>
       </c>
-    </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB172" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC172" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>55</v>
       </c>
@@ -14989,8 +16059,14 @@
       <c r="AA173" s="2">
         <v>6351</v>
       </c>
-    </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB173" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC173" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>56</v>
       </c>
@@ -15072,8 +16148,14 @@
       <c r="AA174" s="2">
         <v>11000</v>
       </c>
-    </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB174" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC174" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>57</v>
       </c>
@@ -15155,8 +16237,14 @@
       <c r="AA175" s="2">
         <v>2357</v>
       </c>
-    </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB175" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC175" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>58</v>
       </c>
@@ -15238,8 +16326,14 @@
       <c r="AA176" s="2">
         <v>5683</v>
       </c>
-    </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB176" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC176" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>59</v>
       </c>
@@ -15321,8 +16415,14 @@
       <c r="AA177" s="2">
         <v>177</v>
       </c>
-    </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB177" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC177" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>60</v>
       </c>
@@ -15404,8 +16504,14 @@
       <c r="AA178" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB178" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC178" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>61</v>
       </c>
@@ -15487,8 +16593,14 @@
       <c r="AA179" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB179" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC179" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>62</v>
       </c>
@@ -15570,8 +16682,14 @@
       <c r="AA180" s="2">
         <v>121</v>
       </c>
-    </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB180" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC180" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>63</v>
       </c>
@@ -15653,8 +16771,14 @@
       <c r="AA181" s="2">
         <v>14441</v>
       </c>
-    </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB181" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC181" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>64</v>
       </c>
@@ -15736,8 +16860,14 @@
       <c r="AA182" s="2">
         <v>3283</v>
       </c>
-    </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB182" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC182" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>65</v>
       </c>
@@ -15819,8 +16949,14 @@
       <c r="AA183" s="2">
         <v>5906</v>
       </c>
-    </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB183" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC183" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>66</v>
       </c>
@@ -15902,8 +17038,14 @@
       <c r="AA184" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB184" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC184" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>67</v>
       </c>
@@ -15985,8 +17127,14 @@
       <c r="AA185" s="2">
         <v>2087</v>
       </c>
-    </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB185" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC185" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>68</v>
       </c>
@@ -16068,8 +17216,14 @@
       <c r="AA186" s="2">
         <v>2111</v>
       </c>
-    </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB186" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC186" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>69</v>
       </c>
@@ -16151,8 +17305,14 @@
       <c r="AA187" s="2">
         <v>15013</v>
       </c>
-    </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB187" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC187" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>70</v>
       </c>
@@ -16234,8 +17394,14 @@
       <c r="AA188" s="2">
         <v>495</v>
       </c>
-    </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB188" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC188" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>71</v>
       </c>
@@ -16317,8 +17483,14 @@
       <c r="AA189" s="2">
         <v>620</v>
       </c>
-    </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB189" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC189" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>77</v>
       </c>
@@ -16400,8 +17572,14 @@
       <c r="AA190" s="2">
         <v>385826</v>
       </c>
-    </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB190" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC190" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>26</v>
       </c>
@@ -16483,8 +17661,14 @@
       <c r="AA191" s="2">
         <v>42312</v>
       </c>
-    </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB191" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC191" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>27</v>
       </c>
@@ -16566,8 +17750,14 @@
       <c r="AA192" s="2">
         <v>3957</v>
       </c>
-    </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB192" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC192" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>28</v>
       </c>
@@ -16649,8 +17839,14 @@
       <c r="AA193" s="2">
         <v>6031</v>
       </c>
-    </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB193" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC193" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>29</v>
       </c>
@@ -16732,8 +17928,14 @@
       <c r="AA194" s="2">
         <v>2048</v>
       </c>
-    </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB194" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC194" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>30</v>
       </c>
@@ -16815,8 +18017,14 @@
       <c r="AA195" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB195" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC195" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>31</v>
       </c>
@@ -16898,8 +18106,14 @@
       <c r="AA196" s="2">
         <v>10408</v>
       </c>
-    </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB196" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC196" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>32</v>
       </c>
@@ -16981,8 +18195,14 @@
       <c r="AA197" s="2">
         <v>2178</v>
       </c>
-    </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB197" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC197" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>33</v>
       </c>
@@ -17064,8 +18284,14 @@
       <c r="AA198" s="2">
         <v>24444</v>
       </c>
-    </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB198" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC198" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>34</v>
       </c>
@@ -17147,8 +18373,14 @@
       <c r="AA199" s="2">
         <v>51555</v>
       </c>
-    </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB199" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC199" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>35</v>
       </c>
@@ -17230,8 +18462,14 @@
       <c r="AA200" s="2">
         <v>3248</v>
       </c>
-    </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB200" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC200" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>36</v>
       </c>
@@ -17313,8 +18551,14 @@
       <c r="AA201" s="2">
         <v>11603</v>
       </c>
-    </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB201" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC201" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>37</v>
       </c>
@@ -17396,8 +18640,14 @@
       <c r="AA202" s="2">
         <v>26723</v>
       </c>
-    </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB202" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC202" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>38</v>
       </c>
@@ -17479,8 +18729,14 @@
       <c r="AA203" s="2">
         <v>7728</v>
       </c>
-    </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB203" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC203" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>39</v>
       </c>
@@ -17562,8 +18818,14 @@
       <c r="AA204" s="2">
         <v>1621</v>
       </c>
-    </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB204" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC204" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>40</v>
       </c>
@@ -17645,8 +18907,14 @@
       <c r="AA205" s="2">
         <v>3256</v>
       </c>
-    </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB205" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC205" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>41</v>
       </c>
@@ -17728,8 +18996,14 @@
       <c r="AA206" s="2">
         <v>2239</v>
       </c>
-    </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB206" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC206" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>42</v>
       </c>
@@ -17811,8 +19085,14 @@
       <c r="AA207" s="2">
         <v>1969</v>
       </c>
-    </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB207" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC207" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>43</v>
       </c>
@@ -17894,8 +19174,14 @@
       <c r="AA208" s="2">
         <v>3404</v>
       </c>
-    </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB208" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC208" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>44</v>
       </c>
@@ -17977,8 +19263,14 @@
       <c r="AA209" s="2">
         <v>3874</v>
       </c>
-    </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB209" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC209" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>45</v>
       </c>
@@ -18060,8 +19352,14 @@
       <c r="AA210" s="2">
         <v>4949</v>
       </c>
-    </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB210" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC210" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>46</v>
       </c>
@@ -18143,8 +19441,14 @@
       <c r="AA211" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB211" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC211" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>47</v>
       </c>
@@ -18226,8 +19530,14 @@
       <c r="AA212" s="2">
         <v>25208</v>
       </c>
-    </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB212" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC212" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>48</v>
       </c>
@@ -18309,8 +19619,14 @@
       <c r="AA213" s="2">
         <v>28582</v>
       </c>
-    </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB213" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC213" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>49</v>
       </c>
@@ -18392,8 +19708,14 @@
       <c r="AA214" s="2">
         <v>7752</v>
       </c>
-    </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB214" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC214" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>50</v>
       </c>
@@ -18475,8 +19797,14 @@
       <c r="AA215" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB215" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC215" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>51</v>
       </c>
@@ -18558,8 +19886,14 @@
       <c r="AA216" s="2">
         <v>1532</v>
       </c>
-    </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB216" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC216" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>52</v>
       </c>
@@ -18641,8 +19975,14 @@
       <c r="AA217" s="2">
         <v>7525</v>
       </c>
-    </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB217" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC217" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>53</v>
       </c>
@@ -18724,8 +20064,14 @@
       <c r="AA218" s="2">
         <v>3888</v>
       </c>
-    </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB218" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC218" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>54</v>
       </c>
@@ -18807,8 +20153,14 @@
       <c r="AA219" s="2">
         <v>1420</v>
       </c>
-    </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB219" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC219" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>55</v>
       </c>
@@ -18890,8 +20242,14 @@
       <c r="AA220" s="2">
         <v>7818</v>
       </c>
-    </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB220" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC220" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>56</v>
       </c>
@@ -18973,8 +20331,14 @@
       <c r="AA221" s="2">
         <v>12153</v>
       </c>
-    </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB221" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC221" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>57</v>
       </c>
@@ -19056,8 +20420,14 @@
       <c r="AA222" s="2">
         <v>3104</v>
       </c>
-    </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB222" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC222" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>58</v>
       </c>
@@ -19139,8 +20509,14 @@
       <c r="AA223" s="2">
         <v>7073</v>
       </c>
-    </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB223" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC223" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>59</v>
       </c>
@@ -19222,8 +20598,14 @@
       <c r="AA224" s="2">
         <v>1195</v>
       </c>
-    </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB224" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC224" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>60</v>
       </c>
@@ -19305,8 +20687,14 @@
       <c r="AA225" s="2">
         <v>658</v>
       </c>
-    </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB225" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC225" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>61</v>
       </c>
@@ -19388,8 +20776,14 @@
       <c r="AA226" s="2">
         <v>174</v>
       </c>
-    </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB226" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC226" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>62</v>
       </c>
@@ -19471,8 +20865,14 @@
       <c r="AA227" s="2">
         <v>198</v>
       </c>
-    </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB227" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC227" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>63</v>
       </c>
@@ -19554,8 +20954,14 @@
       <c r="AA228" s="2">
         <v>17201</v>
       </c>
-    </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB228" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC228" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>64</v>
       </c>
@@ -19637,8 +21043,14 @@
       <c r="AA229" s="2">
         <v>5573</v>
       </c>
-    </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB229" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC229" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>65</v>
       </c>
@@ -19720,8 +21132,14 @@
       <c r="AA230" s="2">
         <v>7490</v>
       </c>
-    </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB230" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC230" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>66</v>
       </c>
@@ -19803,8 +21221,14 @@
       <c r="AA231" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB231" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC231" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>67</v>
       </c>
@@ -19886,8 +21310,14 @@
       <c r="AA232" s="2">
         <v>1892</v>
       </c>
-    </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB232" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC232" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>68</v>
       </c>
@@ -19969,8 +21399,14 @@
       <c r="AA233" s="2">
         <v>8662</v>
       </c>
-    </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB233" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC233" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>69</v>
       </c>
@@ -20052,8 +21488,14 @@
       <c r="AA234" s="2">
         <v>21312</v>
       </c>
-    </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB234" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC234" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>70</v>
       </c>
@@ -20135,8 +21577,14 @@
       <c r="AA235" s="2">
         <v>937</v>
       </c>
-    </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB235" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC235" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>71</v>
       </c>
@@ -20218,8 +21666,14 @@
       <c r="AA236" s="2">
         <v>854</v>
       </c>
-    </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB236" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC236" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>78</v>
       </c>
@@ -20301,8 +21755,14 @@
       <c r="AA237" s="2">
         <v>563433</v>
       </c>
-    </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB237" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>26</v>
       </c>
@@ -20384,8 +21844,14 @@
       <c r="AA238" s="2">
         <v>56914</v>
       </c>
-    </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB238" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC238" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>27</v>
       </c>
@@ -20467,8 +21933,14 @@
       <c r="AA239" s="2">
         <v>5830</v>
       </c>
-    </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB239" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC239" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>28</v>
       </c>
@@ -20550,8 +22022,14 @@
       <c r="AA240" s="2">
         <v>8811</v>
       </c>
-    </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB240" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC240" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>29</v>
       </c>
@@ -20633,8 +22111,14 @@
       <c r="AA241" s="2">
         <v>1537</v>
       </c>
-    </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB241" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC241" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>30</v>
       </c>
@@ -20716,8 +22200,14 @@
       <c r="AA242" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB242" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC242" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>31</v>
       </c>
@@ -20799,8 +22289,14 @@
       <c r="AA243" s="2">
         <v>19135</v>
       </c>
-    </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB243" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC243" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>32</v>
       </c>
@@ -20882,8 +22378,14 @@
       <c r="AA244" s="2">
         <v>3680</v>
       </c>
-    </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB244" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC244" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>33</v>
       </c>
@@ -20965,8 +22467,14 @@
       <c r="AA245" s="2">
         <v>10351</v>
       </c>
-    </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB245" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC245" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>34</v>
       </c>
@@ -21048,8 +22556,14 @@
       <c r="AA246" s="2">
         <v>102409</v>
       </c>
-    </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB246" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC246" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>35</v>
       </c>
@@ -21131,8 +22645,14 @@
       <c r="AA247" s="2">
         <v>5801</v>
       </c>
-    </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB247" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC247" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>36</v>
       </c>
@@ -21214,8 +22734,14 @@
       <c r="AA248" s="2">
         <v>14872</v>
       </c>
-    </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB248" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC248" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>37</v>
       </c>
@@ -21297,8 +22823,14 @@
       <c r="AA249" s="2">
         <v>31230</v>
       </c>
-    </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB249" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC249" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>38</v>
       </c>
@@ -21380,8 +22912,14 @@
       <c r="AA250" s="2">
         <v>11700</v>
       </c>
-    </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB250" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC250" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>39</v>
       </c>
@@ -21463,8 +23001,14 @@
       <c r="AA251" s="2">
         <v>2009</v>
       </c>
-    </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB251" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC251" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>40</v>
       </c>
@@ -21546,8 +23090,14 @@
       <c r="AA252" s="2">
         <v>3763</v>
       </c>
-    </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB252" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC252" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>41</v>
       </c>
@@ -21629,8 +23179,14 @@
       <c r="AA253" s="2">
         <v>2506</v>
       </c>
-    </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB253" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC253" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>42</v>
       </c>
@@ -21712,8 +23268,14 @@
       <c r="AA254" s="2">
         <v>2842</v>
       </c>
-    </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB254" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC254" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>43</v>
       </c>
@@ -21795,8 +23357,14 @@
       <c r="AA255" s="2">
         <v>7146</v>
       </c>
-    </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB255" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC255" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>44</v>
       </c>
@@ -21878,8 +23446,14 @@
       <c r="AA256" s="2">
         <v>5446</v>
       </c>
-    </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB256" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC256" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>45</v>
       </c>
@@ -21961,8 +23535,14 @@
       <c r="AA257" s="2">
         <v>6158</v>
       </c>
-    </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB257" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC257" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>46</v>
       </c>
@@ -22044,8 +23624,14 @@
       <c r="AA258" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB258" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC258" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>47</v>
       </c>
@@ -22127,8 +23713,14 @@
       <c r="AA259" s="2">
         <v>35392</v>
       </c>
-    </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB259" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC259" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>48</v>
       </c>
@@ -22210,8 +23802,14 @@
       <c r="AA260" s="2">
         <v>43935</v>
       </c>
-    </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB260" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC260" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>49</v>
       </c>
@@ -22293,8 +23891,14 @@
       <c r="AA261" s="2">
         <v>11095</v>
       </c>
-    </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB261" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC261" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>50</v>
       </c>
@@ -22376,8 +23980,14 @@
       <c r="AA262" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB262" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC262" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>51</v>
       </c>
@@ -22459,8 +24069,14 @@
       <c r="AA263" s="2">
         <v>2179</v>
       </c>
-    </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB263" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC263" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>52</v>
       </c>
@@ -22542,8 +24158,14 @@
       <c r="AA264" s="2">
         <v>9381</v>
       </c>
-    </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB264" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC264" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>53</v>
       </c>
@@ -22625,8 +24247,14 @@
       <c r="AA265" s="2">
         <v>5675</v>
       </c>
-    </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB265" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC265" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>54</v>
       </c>
@@ -22708,8 +24336,14 @@
       <c r="AA266" s="2">
         <v>9666</v>
       </c>
-    </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB266" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC266" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>55</v>
       </c>
@@ -22791,8 +24425,14 @@
       <c r="AA267" s="2">
         <v>12637</v>
       </c>
-    </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB267" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC267" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>56</v>
       </c>
@@ -22874,8 +24514,14 @@
       <c r="AA268" s="2">
         <v>17224</v>
       </c>
-    </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB268" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC268" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>57</v>
       </c>
@@ -22957,8 +24603,14 @@
       <c r="AA269" s="2">
         <v>3140</v>
       </c>
-    </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB269" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC269" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>58</v>
       </c>
@@ -23040,8 +24692,14 @@
       <c r="AA270" s="2">
         <v>12536</v>
       </c>
-    </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB270" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC270" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>59</v>
       </c>
@@ -23123,8 +24781,14 @@
       <c r="AA271" s="2">
         <v>2514</v>
       </c>
-    </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB271" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC271" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>60</v>
       </c>
@@ -23206,8 +24870,14 @@
       <c r="AA272" s="2">
         <v>2295</v>
       </c>
-    </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB272" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC272" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="273" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>61</v>
       </c>
@@ -23289,8 +24959,14 @@
       <c r="AA273" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB273" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC273" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>62</v>
       </c>
@@ -23372,8 +25048,14 @@
       <c r="AA274" s="2">
         <v>514</v>
       </c>
-    </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB274" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC274" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="275" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>63</v>
       </c>
@@ -23455,8 +25137,14 @@
       <c r="AA275" s="2">
         <v>30257</v>
       </c>
-    </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB275" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC275" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="276" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>64</v>
       </c>
@@ -23538,8 +25226,14 @@
       <c r="AA276" s="2">
         <v>11175</v>
       </c>
-    </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB276" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC276" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="277" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>65</v>
       </c>
@@ -23621,8 +25315,14 @@
       <c r="AA277" s="2">
         <v>9531</v>
       </c>
-    </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB277" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC277" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="278" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>66</v>
       </c>
@@ -23704,8 +25404,14 @@
       <c r="AA278" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB278" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC278" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>67</v>
       </c>
@@ -23787,8 +25493,14 @@
       <c r="AA279" s="2">
         <v>3464</v>
       </c>
-    </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB279" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC279" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>68</v>
       </c>
@@ -23870,8 +25582,14 @@
       <c r="AA280" s="2">
         <v>9308</v>
       </c>
-    </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB280" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC280" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>69</v>
       </c>
@@ -23953,8 +25671,14 @@
       <c r="AA281" s="2">
         <v>26839</v>
       </c>
-    </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB281" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC281" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>70</v>
       </c>
@@ -24036,8 +25760,14 @@
       <c r="AA282" s="2">
         <v>1196</v>
       </c>
-    </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB282" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC282" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>71</v>
       </c>
@@ -24118,6 +25848,12 @@
       </c>
       <c r="AA283" s="2">
         <v>1225</v>
+      </c>
+      <c r="AB283" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC283" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Estimering/loebpriser.xlsx
+++ b/Estimering/loebpriser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmuskaslund/Documents/GitHub/SpecialeJR /Estimering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5BA477-D7AE-3C4C-BDE7-25D471ACA86B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BBA687-7D43-A84B-923C-EBF92F3AA059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="94">
   <si>
     <t>1994</t>
   </si>
@@ -304,12 +304,21 @@
   <si>
     <t>Egen_gruppe</t>
   </si>
+  <si>
+    <t>Indkomstgruppe</t>
+  </si>
+  <si>
+    <t>Gennemsnitshustand</t>
+  </si>
+  <si>
+    <t>Under 250.000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -320,6 +329,11 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -655,12 +669,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC283"/>
+  <dimension ref="A1:AD283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="AB1" sqref="AB1:AC283"/>
+      <selection pane="topRight" activeCell="AE57" sqref="AE57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -669,7 +683,7 @@
     <col min="2" max="27" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -757,8 +771,11 @@
       <c r="AC1" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
@@ -846,8 +863,11 @@
       <c r="AC2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -935,8 +955,11 @@
       <c r="AC3" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1024,8 +1047,11 @@
       <c r="AC4" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1113,8 +1139,11 @@
       <c r="AC5" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1202,8 +1231,11 @@
       <c r="AC6" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1291,8 +1323,11 @@
       <c r="AC7" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1380,8 +1415,11 @@
       <c r="AC8" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1469,8 +1507,11 @@
       <c r="AC9" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1558,8 +1599,11 @@
       <c r="AC10" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1647,8 +1691,11 @@
       <c r="AC11" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1736,8 +1783,11 @@
       <c r="AC12" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1825,8 +1875,11 @@
       <c r="AC13" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1914,8 +1967,11 @@
       <c r="AC14" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -2003,8 +2059,11 @@
       <c r="AC15" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -2092,8 +2151,11 @@
       <c r="AC16" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -2181,8 +2243,11 @@
       <c r="AC17" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -2270,8 +2335,11 @@
       <c r="AC18" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -2359,8 +2427,11 @@
       <c r="AC19" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -2448,8 +2519,11 @@
       <c r="AC20" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -2537,8 +2611,11 @@
       <c r="AC21" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -2626,8 +2703,11 @@
       <c r="AC22" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -2715,8 +2795,11 @@
       <c r="AC23" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -2804,8 +2887,11 @@
       <c r="AC24" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -2893,8 +2979,11 @@
       <c r="AC25" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -2982,8 +3071,11 @@
       <c r="AC26" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -3071,8 +3163,11 @@
       <c r="AC27" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -3160,8 +3255,11 @@
       <c r="AC28" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -3249,8 +3347,11 @@
       <c r="AC29" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -3338,8 +3439,11 @@
       <c r="AC30" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -3427,8 +3531,11 @@
       <c r="AC31" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -3516,8 +3623,11 @@
       <c r="AC32" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -3605,8 +3715,11 @@
       <c r="AC33" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -3694,8 +3807,11 @@
       <c r="AC34" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -3783,8 +3899,11 @@
       <c r="AC35" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -3872,8 +3991,11 @@
       <c r="AC36" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -3961,8 +4083,11 @@
       <c r="AC37" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
@@ -4050,8 +4175,11 @@
       <c r="AC38" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>62</v>
       </c>
@@ -4139,8 +4267,11 @@
       <c r="AC39" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -4228,8 +4359,11 @@
       <c r="AC40" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>64</v>
       </c>
@@ -4317,8 +4451,11 @@
       <c r="AC41" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4543,11 @@
       <c r="AC42" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
@@ -4495,8 +4635,11 @@
       <c r="AC43" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>67</v>
       </c>
@@ -4584,8 +4727,11 @@
       <c r="AC44" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
@@ -4673,8 +4819,11 @@
       <c r="AC45" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>69</v>
       </c>
@@ -4762,8 +4911,11 @@
       <c r="AC46" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
@@ -4851,8 +5003,11 @@
       <c r="AC47" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -4940,8 +5095,11 @@
       <c r="AC48" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>74</v>
       </c>
@@ -5029,8 +5187,11 @@
       <c r="AC49" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>26</v>
       </c>
@@ -5118,8 +5279,11 @@
       <c r="AC50" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
@@ -5208,7 +5372,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -5297,7 +5461,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
@@ -5386,7 +5550,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
@@ -5475,7 +5639,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>31</v>
       </c>
@@ -5564,7 +5728,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>32</v>
       </c>
@@ -5653,7 +5817,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
@@ -5742,7 +5906,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>34</v>
       </c>
@@ -5831,7 +5995,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>35</v>
       </c>
@@ -5920,7 +6084,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>36</v>
       </c>
@@ -6009,7 +6173,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>37</v>
       </c>
@@ -6098,7 +6262,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
@@ -6187,7 +6351,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>39</v>
       </c>
@@ -6276,7 +6440,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>40</v>
       </c>
@@ -25857,6 +26021,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
